--- a/Production/Tympan_D_BOM.xlsx
+++ b/Production/Tympan_D_BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Tympan_D_3_BOM" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="189">
   <si>
     <t>Item</t>
   </si>
@@ -503,19 +503,22 @@
     <t>3V3 Regulator</t>
   </si>
   <si>
+    <t>Diodes Inc</t>
+  </si>
+  <si>
+    <t>AP2210K-3.3TRG1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>UQFN-40-1EP_5x5mm_Pitch0.4mm</t>
+  </si>
+  <si>
+    <t>CODEC</t>
+  </si>
+  <si>
     <t>Texas Instrument</t>
-  </si>
-  <si>
-    <t>LP5907MFX-3.3/NOPB</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>UQFN-40-1EP_5x5mm_Pitch0.4mm</t>
-  </si>
-  <si>
-    <t>CODEC</t>
   </si>
   <si>
     <t>TLV320AIC3206IRSBT</t>
@@ -593,6 +596,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -680,8 +684,8 @@
   </sheetPr>
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K50" activeCellId="0" sqref="K50"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F42" activeCellId="0" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1732,10 +1736,10 @@
         <v>166</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1744,22 +1748,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1768,7 +1772,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>160</v>
@@ -1777,13 +1781,13 @@
         <v>1</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1792,7 +1796,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>160</v>
@@ -1801,13 +1805,13 @@
         <v>1</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1816,22 +1820,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1840,22 +1844,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E48" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="G48" s="0" t="s">
         <v>186</v>
-      </c>
-      <c r="F48" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/Production/Tympan_D_BOM.xlsx
+++ b/Production/Tympan_D_BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Tympan_D_3_BOM" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="189">
   <si>
     <t>Item</t>
   </si>
@@ -53,6 +53,9 @@
     <t>4UCON</t>
   </si>
   <si>
+    <t>Consigned by Solutions</t>
+  </si>
+  <si>
     <t>C1,C3,C5,C7,C10,C14,C16,C18,C28,C29,C42</t>
   </si>
   <si>
@@ -254,9 +257,6 @@
     <t>IC_MKL02Z32_QFN16</t>
   </si>
   <si>
-    <t>Consigned by Solutions</t>
-  </si>
-  <si>
     <t>IC3</t>
   </si>
   <si>
@@ -389,7 +389,7 @@
     <t>RC0603FR-072K2L</t>
   </si>
   <si>
-    <t>R18,R21,R34,R35,R36</t>
+    <t>R18,R21</t>
   </si>
   <si>
     <t>R_0402</t>
@@ -416,7 +416,7 @@
     <t>CRCW0402100KFKED</t>
   </si>
   <si>
-    <t>R25</t>
+    <t>R25,R34,R35,R36</t>
   </si>
   <si>
     <t>470R</t>
@@ -684,8 +684,8 @@
   </sheetPr>
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F42" activeCellId="0" sqref="F42"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -748,6 +748,9 @@
       <c r="G2" s="0" t="n">
         <v>20519</v>
       </c>
+      <c r="H2" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -755,22 +758,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -779,22 +782,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>13</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -803,22 +806,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -827,22 +830,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -851,22 +854,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -875,19 +878,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>885012005008</v>
@@ -899,19 +902,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>33</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>885012205014</v>
@@ -923,22 +926,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>7</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -947,22 +950,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -971,22 +974,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -995,22 +998,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1019,22 +1022,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1043,22 +1046,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E15" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="0" t="s">
         <v>59</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1067,22 +1070,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E16" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="0" t="s">
         <v>63</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1091,22 +1094,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1115,22 +1118,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1139,25 +1142,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1241,7 +1244,7 @@
         <v>92</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>2</v>
@@ -1250,7 +1253,7 @@
         <v>93</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>94</v>
@@ -1274,7 +1277,7 @@
         <v>97</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>98</v>
@@ -1448,7 +1451,7 @@
         <v>122</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>123</v>
@@ -1466,13 +1469,13 @@
         <v>125</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>126</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G32" s="0" t="s">
         <v>127</v>
@@ -1538,13 +1541,13 @@
         <v>125</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>134</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>135</v>
@@ -1568,7 +1571,7 @@
         <v>137</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G36" s="0" t="s">
         <v>138</v>
@@ -1592,7 +1595,7 @@
         <v>140</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G37" s="0" t="s">
         <v>141</v>
@@ -1616,7 +1619,7 @@
         <v>122</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G38" s="0" t="s">
         <v>143</v>
